--- a/data/well_depth.xlsx
+++ b/data/well_depth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiglejm/Documents/Belmont/Code/Backup_AWS_Jan2022/gom-load-strat-basin-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE100ADD-B3C5-D845-AA91-54D1E89F8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E6989A-F325-5C45-917D-222BEE3B42C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CE146ABC-E5D5-3842-BAD1-429056E88BE5}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -575,7 +575,7 @@
         <v>13.53</v>
       </c>
       <c r="C6" s="4">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D6">
         <v>0.99</v>
@@ -589,7 +589,7 @@
         <v>17.95</v>
       </c>
       <c r="C7" s="4">
-        <v>8200</v>
+        <v>6000</v>
       </c>
       <c r="D7">
         <v>0.99</v>
@@ -603,7 +603,7 @@
         <v>23.03</v>
       </c>
       <c r="C8" s="4">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="D8">
         <v>0.99</v>
@@ -617,7 +617,7 @@
         <v>48.6</v>
       </c>
       <c r="C9" s="4">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>65.5</v>
       </c>
       <c r="C10" s="4">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>88</v>
       </c>
       <c r="C11" s="4">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>101</v>
       </c>
       <c r="C12" s="4">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>136.5</v>
       </c>
       <c r="C13" s="4">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>154</v>
       </c>
       <c r="C14" s="4">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>163.5</v>
       </c>
       <c r="C15" s="4">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>169.7</v>
       </c>
       <c r="C16" s="4">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="D16">
         <v>0.99</v>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="4">
-        <v>15000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">

--- a/data/well_depth.xlsx
+++ b/data/well_depth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiglejm/Documents/Belmont/Code/Backup_AWS_Jan2022/gom-load-strat-basin-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E6989A-F325-5C45-917D-222BEE3B42C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BD9845-12E7-8F4F-8778-CDE2C081010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CE146ABC-E5D5-3842-BAD1-429056E88BE5}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -575,7 +575,7 @@
         <v>13.53</v>
       </c>
       <c r="C6" s="4">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D6">
         <v>0.99</v>
@@ -589,7 +589,7 @@
         <v>17.95</v>
       </c>
       <c r="C7" s="4">
-        <v>6000</v>
+        <v>8200</v>
       </c>
       <c r="D7">
         <v>0.99</v>
@@ -603,7 +603,7 @@
         <v>23.03</v>
       </c>
       <c r="C8" s="4">
-        <v>7000</v>
+        <v>8400</v>
       </c>
       <c r="D8">
         <v>0.99</v>
@@ -617,7 +617,7 @@
         <v>48.6</v>
       </c>
       <c r="C9" s="4">
-        <v>8000</v>
+        <v>8600</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>65.5</v>
       </c>
       <c r="C10" s="4">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>88</v>
       </c>
       <c r="C11" s="4">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>101</v>
       </c>
       <c r="C12" s="4">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>136.5</v>
       </c>
       <c r="C13" s="4">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>154</v>
       </c>
       <c r="C14" s="4">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>163.5</v>
       </c>
       <c r="C15" s="4">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>169.7</v>
       </c>
       <c r="C16" s="4">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="D16">
         <v>0.99</v>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="4">
-        <v>16000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
